--- a/arquivos_condicionais/Neide - 27_04_2023.xlsx
+++ b/arquivos_condicionais/Neide - 27_04_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\Área de Trabalho\Programming\Git\Python\Sistema_Condicional_Produtos_RPA_PY\arquivos_condicionais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC064B9-A172-45ED-BAF5-F782706E0882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A190D-5B59-4D90-868C-DD81D098F6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Marca</t>
   </si>
@@ -40,9 +40,6 @@
     <t>BLUSA FEM ML CHEETAH M</t>
   </si>
   <si>
-    <t>199,90</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>MELISSA LOVER SLIDE BEGE 36</t>
   </si>
   <si>
-    <t>109,90</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -74,6 +68,9 @@
   </si>
   <si>
     <t>MARCA 4</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -464,7 +461,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,19 +473,19 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -511,16 +508,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="6">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -528,25 +525,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
